--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="943">
   <si>
     <t>anchor score</t>
   </si>
@@ -355,502 +355,502 @@
     <t>hand</t>
   </si>
   <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>stressed</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>stressed</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>social</t>
@@ -3211,7 +3211,7 @@
         <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3269,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02828484429015089</v>
+        <v>0.02866298769029765</v>
       </c>
       <c r="C3">
         <v>229</v>
@@ -3290,28 +3290,28 @@
         <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="K3">
-        <v>0.004473835698574969</v>
+        <v>0.008186284131908639</v>
       </c>
       <c r="L3">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M3">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>276</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3319,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0208255759380603</v>
+        <v>0.02110399550489436</v>
       </c>
       <c r="C4">
         <v>267</v>
@@ -3340,28 +3340,28 @@
         <v>248</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="K4">
-        <v>0.004334751976188852</v>
+        <v>0.007231177245878088</v>
       </c>
       <c r="L4">
-        <v>804</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>854</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2253</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0116726201943595</v>
+        <v>0.01182867282253161</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -3390,28 +3390,28 @@
         <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K5">
-        <v>0.004204508928657623</v>
+        <v>0.004473835698574969</v>
       </c>
       <c r="L5">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="M5">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3419,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01040679256513331</v>
+        <v>0.0105459221952926</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3440,28 +3440,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>0.004102309248917411</v>
+        <v>0.004334751976188852</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>804</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>854</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>174</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3469,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01023756514778818</v>
+        <v>0.01037443235676046</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -3490,28 +3490,28 @@
         <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K7">
-        <v>0.004008701505446135</v>
+        <v>0.004204508928657623</v>
       </c>
       <c r="L7">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="M7">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2808</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3519,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009712207068410684</v>
+        <v>0.009842050703613478</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -3540,16 +3540,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K8">
-        <v>0.003718033499985129</v>
+        <v>0.004102309248917411</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>101</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3569,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009345575608953823</v>
+        <v>0.009470517705181978</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -3590,28 +3590,28 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K9">
-        <v>0.003402300977210603</v>
+        <v>0.004008701505446135</v>
       </c>
       <c r="L9">
-        <v>497</v>
+        <v>380</v>
       </c>
       <c r="M9">
-        <v>528</v>
+        <v>393</v>
       </c>
       <c r="N9">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O9">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1615</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3619,7 +3619,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009156756637814817</v>
+        <v>0.009279174391075895</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -3640,28 +3640,28 @@
         <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="K10">
-        <v>0.003362872105511277</v>
+        <v>0.003718033499985129</v>
       </c>
       <c r="L10">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3669,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008963961221784642</v>
+        <v>0.009083801470520594</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -3690,28 +3690,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>0.003289164793723477</v>
+        <v>0.003402300977210603</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>497</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>528</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>107</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3719,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008565361528192783</v>
+        <v>0.008679872850883178</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -3740,28 +3740,28 @@
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="K12">
-        <v>0.003101054306775897</v>
+        <v>0.003362872105511277</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3769,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008358936940193898</v>
+        <v>0.008470688548360887</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3790,28 +3790,28 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="K13">
-        <v>0.003084965964621668</v>
+        <v>0.003289164793723477</v>
       </c>
       <c r="L13">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>592</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3819,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008147283929729663</v>
+        <v>0.008256205923980195</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -3840,16 +3840,16 @@
         <v>61</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K14">
-        <v>0.002952115748670914</v>
+        <v>0.003101054306775897</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3869,7 +3869,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007929983864619416</v>
+        <v>0.008036000748817725</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3890,28 +3890,28 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>0.002925327538533331</v>
+        <v>0.003084965964621668</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3919,7 +3919,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007706559073582541</v>
+        <v>0.007809588965549495</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -3940,28 +3940,28 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="K16">
-        <v>0.002911476286991524</v>
+        <v>0.002952115748670914</v>
       </c>
       <c r="L16">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>627</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3969,7 +3969,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007476460487163059</v>
+        <v>0.007576414164145583</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3990,28 +3990,28 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="K17">
-        <v>0.002900770688433794</v>
+        <v>0.002925327538533331</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4019,7 +4019,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007476460487163059</v>
+        <v>0.007576414164145583</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -4040,28 +4040,28 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="K18">
-        <v>0.002795252577769732</v>
+        <v>0.002911476286991524</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4069,7 +4069,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00723905173884008</v>
+        <v>0.007335831470426457</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -4090,16 +4090,16 @@
         <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K19">
-        <v>0.002795252577769732</v>
+        <v>0.002900770688433794</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4119,7 +4119,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00699358840217929</v>
+        <v>0.007087086505633509</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -4140,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K20">
         <v>0.002795252577769732</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4169,7 +4169,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00699358840217929</v>
+        <v>0.007087086505633509</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K21">
         <v>0.002795252577769732</v>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4219,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00699358840217929</v>
+        <v>0.007087086505633509</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -4240,16 +4240,16 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K22">
-        <v>0.002740970661436231</v>
+        <v>0.002795252577769732</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4269,7 +4269,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4290,28 +4290,28 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="K23">
-        <v>0.002679931485006485</v>
+        <v>0.002795252577769732</v>
       </c>
       <c r="L23">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4319,7 +4319,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4340,28 +4340,28 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="K24">
-        <v>0.002669328248611695</v>
+        <v>0.002740970661436231</v>
       </c>
       <c r="L24">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4369,7 +4369,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4390,28 +4390,28 @@
         <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="K25">
-        <v>0.002629046700518238</v>
+        <v>0.002679931485006485</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4419,7 +4419,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4440,28 +4440,28 @@
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="K26">
-        <v>0.002629046700518238</v>
+        <v>0.002669328248611695</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4469,7 +4469,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006739190411361722</v>
+        <v>0.006829287438244635</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -4490,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K27">
-        <v>0.002571258397522829</v>
+        <v>0.002629046700518238</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4519,7 +4519,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006474804712273788</v>
+        <v>0.006561367135742319</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4540,16 +4540,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K28">
-        <v>0.002512141106736941</v>
+        <v>0.002629046700518238</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4569,7 +4569,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006474804712273788</v>
+        <v>0.006561367135742319</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4590,16 +4590,16 @@
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K29">
-        <v>0.00245159868932159</v>
+        <v>0.002571258397522829</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4619,7 +4619,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006199153548959403</v>
+        <v>0.006282030759701257</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -4640,16 +4640,16 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K30">
-        <v>0.002389522824082074</v>
+        <v>0.002512141106736941</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4669,7 +4669,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006199153548959403</v>
+        <v>0.006282030759701257</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -4690,16 +4690,16 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K31">
-        <v>0.002389522824082074</v>
+        <v>0.00245159868932159</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4719,7 +4719,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4740,16 +4740,16 @@
         <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K32">
-        <v>0.002325790730081922</v>
+        <v>0.002389522824082074</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4769,7 +4769,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4790,16 +4790,16 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K33">
-        <v>0.002325790730081922</v>
+        <v>0.002389522824082074</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4819,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -4840,28 +4840,28 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c r="K34">
-        <v>0.002307094361938672</v>
+        <v>0.002325790730081922</v>
       </c>
       <c r="L34">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4869,7 +4869,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -4890,28 +4890,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="K35">
-        <v>0.002287891922218723</v>
+        <v>0.002325790730081922</v>
       </c>
       <c r="L35">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>199</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4919,7 +4919,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005607345365372295</v>
+        <v>0.005682310623109187</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4940,28 +4940,28 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="K36">
-        <v>0.002270515986965633</v>
+        <v>0.002307094361938672</v>
       </c>
       <c r="L36">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="M36">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4969,7 +4969,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005286655909746278</v>
+        <v>0.005357333832545151</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4990,28 +4990,28 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K37">
-        <v>0.002258949007259402</v>
+        <v>0.002287891922218723</v>
       </c>
       <c r="L37">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="M37">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>417</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5019,7 +5019,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005286655909746278</v>
+        <v>0.005357333832545151</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -5040,28 +5040,28 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K38">
-        <v>0.0021476708466642</v>
+        <v>0.002258949007259402</v>
       </c>
       <c r="L38">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="M38">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>88</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5069,7 +5069,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -5090,28 +5090,28 @@
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="K39">
-        <v>0.00212314674483713</v>
+        <v>0.0021476708466642</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5119,7 +5119,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5140,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K40">
         <v>0.00212314674483713</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5169,7 +5169,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5190,7 +5190,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K41">
         <v>0.00212314674483713</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5219,7 +5219,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K42">
         <v>0.00212314674483713</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5269,7 +5269,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5290,7 +5290,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K43">
         <v>0.00212314674483713</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5319,7 +5319,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5340,28 +5340,28 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="K44">
-        <v>0.002092648892180262</v>
+        <v>0.00212314674483713</v>
       </c>
       <c r="L44">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5369,7 +5369,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -5390,7 +5390,7 @@
         <v>9</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K45">
         <v>0.002092648892180262</v>
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5419,7 +5419,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004945213784008568</v>
+        <v>0.005011326926989128</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -5440,28 +5440,28 @@
         <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="K46">
-        <v>0.002051154624458706</v>
+        <v>0.002092648892180262</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5469,7 +5469,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K47">
         <v>0.002051154624458706</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5519,7 +5519,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5540,28 +5540,28 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="K48">
-        <v>0.002034660116037688</v>
+        <v>0.002051154624458706</v>
       </c>
       <c r="L48">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>679</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5569,7 +5569,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5593,13 +5593,13 @@
         <v>146</v>
       </c>
       <c r="K49">
-        <v>0.002003662966749607</v>
+        <v>0.002034660116037688</v>
       </c>
       <c r="L49">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M49">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="N49">
         <v>0.9399999999999999</v>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>214</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5619,7 +5619,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5640,16 +5640,16 @@
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K50">
-        <v>0.001997569008930788</v>
+        <v>0.002003662966749607</v>
       </c>
       <c r="L50">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M50">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="N50">
         <v>0.9399999999999999</v>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>54</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5669,7 +5669,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5719,7 +5719,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004578378318907408</v>
+        <v>0.004639587195537948</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5819,7 +5819,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5869,7 +5869,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5919,7 +5919,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5969,7 +5969,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6019,7 +6019,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6069,7 +6069,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004179468470096949</v>
+        <v>0.004235344274180443</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6119,7 +6119,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003763035691431776</v>
+        <v>0.003813344156864166</v>
       </c>
       <c r="C60">
         <v>29</v>
@@ -6169,7 +6169,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6219,7 +6219,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6269,7 +6269,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6319,7 +6319,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6369,7 +6369,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6390,7 +6390,7 @@
         <v>162</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K65">
         <v>0.001788180656559988</v>
@@ -6419,7 +6419,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6440,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K66">
         <v>0.00175697945501738</v>
@@ -6469,7 +6469,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -6519,7 +6519,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003738230243581529</v>
+        <v>0.003788207082072791</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -6569,7 +6569,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003685724754370047</v>
+        <v>0.003734999640818967</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -6619,7 +6619,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6669,7 +6669,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6719,7 +6719,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6819,7 +6819,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6869,7 +6869,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -6919,7 +6919,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -6990,7 +6990,7 @@
         <v>23</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K77">
         <v>0.001721504833728617</v>
@@ -7019,7 +7019,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7040,7 +7040,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K78">
         <v>0.001684299952748349</v>
@@ -7069,7 +7069,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003237402356136894</v>
+        <v>0.003280683567871159</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7090,7 +7090,7 @@
         <v>10</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K79">
         <v>0.001660847061391946</v>
@@ -7119,7 +7119,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002897190489442477</v>
+        <v>0.002935923368835846</v>
       </c>
       <c r="C80">
         <v>31</v>
@@ -7169,7 +7169,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7219,7 +7219,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7269,7 +7269,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7319,7 +7319,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7369,7 +7369,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7390,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K85">
         <v>0.001636123179546038</v>
@@ -7419,7 +7419,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7440,7 +7440,7 @@
         <v>36</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K86">
         <v>0.001635267605452427</v>
@@ -7469,7 +7469,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7490,7 +7490,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K87">
         <v>0.001554122511676175</v>
@@ -7519,7 +7519,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7569,7 +7569,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7619,7 +7619,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7669,7 +7669,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7719,7 +7719,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -7769,7 +7769,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -7819,7 +7819,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -7869,7 +7869,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -7919,7 +7919,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -7969,7 +7969,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8019,7 +8019,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8040,7 +8040,7 @@
         <v>32</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K98">
         <v>0.00148523673196487</v>
@@ -8069,7 +8069,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8119,7 +8119,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8219,7 +8219,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8269,7 +8269,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002643327954873139</v>
+        <v>0.002678666916272575</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8319,7 +8319,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002528047707859048</v>
+        <v>0.002561845474117776</v>
       </c>
       <c r="C104">
         <v>13</v>
@@ -8369,7 +8369,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002230872757924833</v>
+        <v>0.00226069755742957</v>
       </c>
       <c r="C105">
         <v>13</v>
@@ -8419,7 +8419,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002124491036413893</v>
+        <v>0.002152893606208863</v>
       </c>
       <c r="C106">
         <v>12</v>
@@ -8469,7 +8469,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002072772434207022</v>
+        <v>0.002100483571944289</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -8519,25 +8519,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001939714529515518</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>354</v>
@@ -8569,7 +8569,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>355</v>
@@ -8619,7 +8619,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>356</v>
@@ -8669,7 +8669,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>357</v>
@@ -8719,7 +8719,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>358</v>
@@ -8769,7 +8769,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>359</v>
@@ -8819,7 +8819,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>360</v>
@@ -8869,7 +8869,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>361</v>
@@ -8919,7 +8919,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>362</v>
@@ -8969,7 +8969,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>363</v>
@@ -9019,7 +9019,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>364</v>
@@ -9069,7 +9069,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>365</v>
@@ -9119,7 +9119,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>366</v>
@@ -9169,7 +9169,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>367</v>
@@ -9219,7 +9219,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>368</v>
@@ -9269,7 +9269,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9319,7 +9319,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>370</v>
@@ -9369,7 +9369,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>371</v>
@@ -9419,7 +9419,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>372</v>
@@ -9469,7 +9469,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>373</v>
@@ -9519,7 +9519,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>374</v>
@@ -9569,7 +9569,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>375</v>
@@ -9619,7 +9619,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>376</v>
@@ -9669,7 +9669,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>377</v>
@@ -9719,7 +9719,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>378</v>
@@ -9769,7 +9769,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>379</v>
@@ -9819,7 +9819,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9837,10 +9837,10 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K134">
         <v>0.001309795623655389</v>
@@ -9869,7 +9869,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K135">
         <v>0.001277777570521717</v>
@@ -9919,7 +9919,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>380</v>
@@ -9969,7 +9969,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>381</v>
@@ -10019,7 +10019,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001869115121790765</v>
+        <v>0.001894103541036396</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>382</v>
@@ -10069,25 +10069,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001869115121790765</v>
+        <v>0.00184081596645716</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>383</v>
@@ -10119,13 +10119,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001816530556432155</v>
+        <v>0.001806129961697167</v>
       </c>
       <c r="C140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D140">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E140">
         <v>0.9399999999999999</v>
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>384</v>
@@ -10169,13 +10169,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001782302155182277</v>
+        <v>0.00175255200785952</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E141">
         <v>0.9399999999999999</v>
@@ -10187,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>214</v>
+        <v>679</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>385</v>
@@ -10219,25 +10219,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00172943104146388</v>
+        <v>0.001593199420937101</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E142">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F142">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>679</v>
+        <v>417</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>386</v>
@@ -10269,13 +10269,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001712478700209333</v>
+        <v>0.001560962336481484</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E143">
         <v>0.9399999999999999</v>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>387</v>
@@ -10319,25 +10319,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001572180752099974</v>
+        <v>0.001515767860492776</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E144">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F144">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>388</v>
@@ -10369,13 +10369,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001540368963180838</v>
+        <v>0.001487424427142067</v>
       </c>
       <c r="C145">
         <v>9</v>
       </c>
       <c r="D145">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E145">
         <v>0.9399999999999999</v>
@@ -10387,7 +10387,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>266</v>
+        <v>511</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>389</v>
@@ -10419,25 +10419,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001495770726251465</v>
+        <v>0.00142315365081965</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="E146">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>390</v>
@@ -10469,25 +10469,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001467801220502961</v>
+        <v>0.001334760757409008</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>391</v>
@@ -10519,25 +10519,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001404378351947565</v>
+        <v>0.001329880239704261</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
       <c r="D148">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E148">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>392</v>
@@ -10569,25 +10569,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001317151603170005</v>
+        <v>0.001304872888061328</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>393</v>
@@ -10619,13 +10619,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001312335472875925</v>
+        <v>0.001278176157110095</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
       <c r="D150">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E150">
         <v>0.97</v>
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>394</v>
@@ -10669,25 +10669,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001287658036770098</v>
+        <v>0.001278176157110095</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F151">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>395</v>
@@ -10719,25 +10719,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001261313508901243</v>
+        <v>0.001166546216083652</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E152">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F152">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>396</v>
@@ -10769,25 +10769,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001261313508901243</v>
+        <v>0.001127558698200751</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D153">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E153">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F153">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>397</v>
@@ -10819,25 +10819,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001151156272880783</v>
+        <v>0.001111645186969844</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E154">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F154">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>398</v>
@@ -10869,25 +10869,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001112683107260627</v>
+        <v>0.001093051091905791</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E155">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F155">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>399</v>
@@ -10919,25 +10919,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001096979538876926</v>
+        <v>0.001058337622176157</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E156">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>400</v>
@@ -10969,25 +10969,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001078630750910868</v>
+        <v>0.001056766522075372</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E157">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>401</v>
@@ -11019,25 +11019,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001044375247029605</v>
+        <v>0.001036891926341236</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E158">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>402</v>
@@ -11069,13 +11069,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001042824874047029</v>
+        <v>0.001023076825270578</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E159">
         <v>0.97</v>
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>403</v>
@@ -11119,25 +11119,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001023212478725797</v>
+        <v>0.001022041671122913</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E160">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>17</v>
+        <v>1080</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>404</v>
@@ -11169,25 +11169,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001009579636718593</v>
+        <v>0.001012353688666318</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>405</v>
@@ -11219,28 +11219,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001008558139092478</v>
+        <v>0.0009785852553115925</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E162">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1080</v>
+        <v>210</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K162">
         <v>0.001197598859331093</v>
@@ -11269,28 +11269,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0009989979676884601</v>
+        <v>0.000974188925963836</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K163">
         <v>0.001121262507892681</v>
@@ -11319,28 +11319,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0009656750325610776</v>
+        <v>0.000972836965101126</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D164">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K164">
         <v>0.001103229331039859</v>
@@ -11369,25 +11369,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0009613367028519384</v>
+        <v>0.000972836965101126</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E165">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>406</v>
@@ -11419,25 +11419,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0009600025780600181</v>
+        <v>0.0009107321388264886</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E166">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F166">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>407</v>
@@ -11469,25 +11469,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0009600025780600181</v>
+        <v>0.0009012220251624522</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E167">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>408</v>
@@ -11519,13 +11519,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0008987170847323423</v>
+        <v>0.000882204698829781</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E168">
         <v>0.96</v>
@@ -11537,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>409</v>
@@ -11569,25 +11569,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0008893324355438014</v>
+        <v>0.0008585329368114131</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E169">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>410</v>
@@ -11619,25 +11619,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0008705659998900376</v>
+        <v>0.000846096814381839</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E170">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F170">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>411</v>
@@ -11669,25 +11669,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000847206533319507</v>
+        <v>0.0007748365494276753</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E171">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>412</v>
@@ -11719,25 +11719,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0008349344774440191</v>
+        <v>0.0007649602110383522</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>413</v>
@@ -11769,25 +11769,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0007646143307767654</v>
+        <v>0.0007630181841925037</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>414</v>
@@ -11819,25 +11819,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0007548682883712348</v>
+        <v>0.0007455164046209807</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D174">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>415</v>
@@ -11869,25 +11869,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0007529518821844256</v>
+        <v>0.0007448620125701093</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>416</v>
@@ -11919,25 +11919,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0007356809990744756</v>
+        <v>0.0007028120974490046</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E176">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F176">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>417</v>
@@ -11969,13 +11969,13 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0007350352402490661</v>
+        <v>0.0007028120974490046</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E177">
         <v>0.9399999999999999</v>
@@ -11987,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>418</v>
@@ -12019,25 +12019,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006935400788072214</v>
+        <v>0.0006974495080832857</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E178">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F178">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>419</v>
@@ -12069,25 +12069,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006935400788072214</v>
+        <v>0.0006974495080832857</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>420</v>
@@ -12119,25 +12119,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006882482366991945</v>
+        <v>0.0006863745090470946</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F180">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>516</v>
+        <v>109</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>421</v>
@@ -12169,25 +12169,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0006882482366991945</v>
+        <v>0.000671028135585043</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E181">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F181">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>422</v>
@@ -12219,25 +12219,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006773193472673969</v>
+        <v>0.00065976751368697</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D182">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E182">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F182">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>423</v>
@@ -12269,25 +12269,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006621754345503159</v>
+        <v>0.0006565656687646316</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>424</v>
@@ -12319,25 +12319,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006510633711311535</v>
+        <v>0.0006565656687646316</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E184">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F184">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>425</v>
@@ -12369,25 +12369,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006479037673226429</v>
+        <v>0.0006504209399655878</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>426</v>
@@ -12419,25 +12419,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006479037673226429</v>
+        <v>0.0006374086738638679</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E186">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F186">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>427</v>
@@ -12469,13 +12469,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006418401043450047</v>
+        <v>0.0006374086738638679</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E187">
         <v>0.96</v>
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>428</v>
@@ -12519,25 +12519,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006289995057121644</v>
+        <v>0.0006191367559847489</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E188">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F188">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>429</v>
@@ -12569,25 +12569,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006289995057121644</v>
+        <v>0.0006095841960866218</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E189">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F189">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>430</v>
@@ -12619,25 +12619,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006109686445305771</v>
+        <v>0.0005774893282905337</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E190">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F190">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>431</v>
@@ -12669,13 +12669,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006015421090901588</v>
+        <v>0.0005625026086214113</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E191">
         <v>0.95</v>
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>432</v>
@@ -12719,25 +12719,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005698706606028603</v>
+        <v>0.0005478921784114948</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E192">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>433</v>
@@ -12769,25 +12769,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005550816568590267</v>
+        <v>0.0005451011510079992</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>434</v>
@@ -12819,25 +12819,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005406639782846648</v>
+        <v>0.0005423457976262146</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>435</v>
@@ -12869,25 +12869,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005379097721854819</v>
+        <v>0.000521582632313519</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>436</v>
@@ -12919,25 +12919,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005351907694698475</v>
+        <v>0.0005071792715238567</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E196">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F196">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>437</v>
@@ -12969,25 +12969,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005147015272392111</v>
+        <v>0.0005071792715238567</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>438</v>
@@ -13019,25 +13019,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005004881862716761</v>
+        <v>0.000486418482550563</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F198">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>439</v>
@@ -13069,25 +13069,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005004881862716761</v>
+        <v>0.000486418482550563</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>440</v>
@@ -13119,25 +13119,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.000480001289030009</v>
+        <v>0.0004829092170268605</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>441</v>
@@ -13169,13 +13169,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.000480001289030009</v>
+        <v>0.0004642620366777515</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E201">
         <v>0.93</v>
@@ -13187,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>442</v>
@@ -13219,13 +13219,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004765383203407987</v>
+        <v>0.000459237063803912</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>0.89</v>
@@ -13237,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>443</v>
@@ -13269,25 +13269,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004581371474301519</v>
+        <v>0.000459237063803912</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>444</v>
@@ -13319,25 +13319,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004531784677267484</v>
+        <v>0.000434416302744624</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E204">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>445</v>
@@ -13369,25 +13369,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004531784677267484</v>
+        <v>0.0004150016099892286</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>446</v>
@@ -13419,28 +13419,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004286851605631465</v>
+        <v>0.0003874182747138377</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K206">
         <v>0.001068125921249038</v>
@@ -13469,28 +13469,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004095266008393337</v>
+        <v>0.0003874182747138377</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K207">
         <v>0.001068125921249038</v>
@@ -13519,7 +13519,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003823071653883827</v>
+        <v>0.0003874182747138377</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13537,10 +13537,10 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K208">
         <v>0.001053500506482187</v>
@@ -13569,7 +13569,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003823071653883827</v>
+        <v>0.0003874182747138377</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13587,10 +13587,10 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K209">
         <v>0.001053500506482187</v>
@@ -13619,28 +13619,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003823071653883827</v>
+        <v>0.0003574587727329864</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F210">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K210">
         <v>0.001032406583424591</v>
@@ -13669,28 +13669,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003823071653883827</v>
+        <v>0.0003574587727329864</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F211">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K211">
         <v>0.001032223387486849</v>
@@ -13719,7 +13719,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003527429113861495</v>
+        <v>0.0003574587727329864</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13737,10 +13737,10 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K212">
         <v>0.001002587164986281</v>
@@ -13769,25 +13769,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003527429113861495</v>
+        <v>0.0003247296419879458</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>447</v>
@@ -13819,25 +13819,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003527429113861495</v>
+        <v>0.0003247296419879458</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>448</v>
@@ -13869,7 +13869,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003204455676173132</v>
+        <v>0.0003247296419879458</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>449</v>
@@ -13919,25 +13919,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003204455676173132</v>
+        <v>0.0003214795230648477</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>450</v>
@@ -13969,25 +13969,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003204455676173132</v>
+        <v>0.0002887446641452668</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>451</v>
@@ -14019,25 +14019,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000317238326674478</v>
+        <v>0.0002589201492320332</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E218">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="F218">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>82</v>
+        <v>934</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>452</v>
@@ -14069,25 +14069,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002849353303014301</v>
+        <v>0.0002489053145095692</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>453</v>
@@ -14119,25 +14119,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002555042825172647</v>
+        <v>0.0002188582462398835</v>
       </c>
       <c r="C220">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E220">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>934</v>
+        <v>72</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>454</v>
@@ -14169,25 +14169,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002456215709249775</v>
+        <v>0.0002044959669376555</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>455</v>
@@ -14219,25 +14219,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.000215970905873362</v>
+        <v>0.0002044959669376555</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>456</v>
@@ -14269,7 +14269,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0002017981044157985</v>
+        <v>0.0002044959669376555</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14287,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>457</v>
@@ -14319,7 +14319,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002017981044157985</v>
+        <v>0.0002044959669376555</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>458</v>
@@ -14369,7 +14369,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002017981044157985</v>
+        <v>0.0002044959669376555</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>459</v>
@@ -14419,7 +14419,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002017981044157985</v>
+        <v>0.0002044959669376555</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14437,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>460</v>
@@ -14469,25 +14469,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002017981044157985</v>
+        <v>0.0001547561500348168</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>461</v>
@@ -14519,25 +14519,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002017981044157985</v>
+        <v>0.0001547561500348168</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>462</v>
@@ -14569,7 +14569,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001527144920820558</v>
+        <v>0.0001547561500348168</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14587,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>463</v>
@@ -14619,7 +14619,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001527144920820558</v>
+        <v>0.0001547561500348168</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>464</v>
@@ -14669,7 +14669,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001527144920820558</v>
+        <v>0.0001547561500348168</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14687,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>465</v>
@@ -14719,7 +14719,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001527144920820558</v>
+        <v>0.0001547561500348168</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>466</v>
@@ -14769,25 +14769,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001527144920820558</v>
+        <v>0.0001404389363712686</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>467</v>
@@ -14819,25 +14819,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001527144920820558</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>468</v>
@@ -14869,13 +14869,13 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001385861617238301</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E235">
         <v>0.75</v>
@@ -14887,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>469</v>
@@ -14919,7 +14919,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>9.799521473353621E-05</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14937,7 +14937,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>470</v>
@@ -14969,7 +14969,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>9.799521473353621E-05</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14987,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>471</v>
@@ -15019,7 +15019,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>9.799521473353621E-05</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>472</v>
@@ -15069,7 +15069,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>9.799521473353621E-05</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15087,7 +15087,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>473</v>
@@ -15119,7 +15119,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>9.799521473353621E-05</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15137,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>474</v>
@@ -15169,7 +15169,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>9.799521473353621E-05</v>
+        <v>9.93053242507505E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>475</v>
@@ -15219,25 +15219,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>9.799521473353621E-05</v>
+        <v>9.879385503251534E-05</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>476</v>
@@ -15269,25 +15269,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>9.799521473353621E-05</v>
+        <v>9.879385503251534E-05</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F243">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>477</v>
@@ -15319,7 +15319,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>9.749049319671317E-05</v>
+        <v>9.879385503251534E-05</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>478</v>
@@ -15369,25 +15369,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>9.749049319671317E-05</v>
+        <v>5.716252604727453E-05</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F245">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>479</v>
@@ -15419,25 +15419,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>9.749049319671317E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>480</v>
@@ -15469,13 +15469,13 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.64083955918576E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E247">
         <v>0.67</v>
@@ -15487,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>481</v>
@@ -15519,7 +15519,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15569,7 +15569,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>483</v>
@@ -15619,7 +15619,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>485</v>
@@ -15719,7 +15719,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>486</v>
@@ -15769,7 +15769,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15787,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>487</v>
@@ -15819,7 +15819,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15837,7 +15837,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>488</v>
@@ -15869,7 +15869,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15887,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>489</v>
@@ -15919,7 +15919,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>3.988675903885586E-05</v>
+        <v>4.042000979778047E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -15937,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>490</v>
@@ -15969,25 +15969,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>3.988675903885586E-05</v>
+        <v>0</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F257">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>491</v>
@@ -16019,25 +16019,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>3.988675903885586E-05</v>
+        <v>0</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>492</v>
@@ -16087,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>493</v>
@@ -16137,7 +16137,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>494</v>
@@ -16187,7 +16187,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>495</v>
@@ -16237,7 +16237,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>496</v>
@@ -16287,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>497</v>
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>498</v>
@@ -16387,10 +16387,10 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K265">
         <v>0.0009222120704586915</v>
@@ -16437,10 +16437,10 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K266">
         <v>0.000893543513797633</v>
@@ -16490,7 +16490,7 @@
         <v>22</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K267">
         <v>0.0008847336666645866</v>
@@ -16537,10 +16537,10 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K268">
         <v>0.0008847336666645866</v>
@@ -16587,10 +16587,10 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K269">
         <v>0.0008623160789429235</v>
@@ -16637,10 +16637,10 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K270">
         <v>0.0008084888095233064</v>
@@ -16687,10 +16687,10 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K271">
         <v>0.0007974782526462455</v>
@@ -16715,30 +16715,6 @@
       </c>
     </row>
     <row r="272" spans="1:17">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272">
-        <v>0.5</v>
-      </c>
-      <c r="F272">
-        <v>0.5</v>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272">
-        <v>18</v>
-      </c>
       <c r="J272" s="1" t="s">
         <v>499</v>
       </c>
@@ -16764,31 +16740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>2</v>
-      </c>
-      <c r="E273">
-        <v>0.5</v>
-      </c>
-      <c r="F273">
-        <v>0.5</v>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>37</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>500</v>
       </c>
@@ -16814,7 +16766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>501</v>
       </c>
@@ -16840,7 +16792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>502</v>
       </c>
@@ -16866,7 +16818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>503</v>
       </c>
@@ -16892,7 +16844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>504</v>
       </c>
@@ -16918,7 +16870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>505</v>
       </c>
@@ -16944,7 +16896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>506</v>
       </c>
@@ -16970,7 +16922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>507</v>
       </c>
@@ -16996,7 +16948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>508</v>
       </c>
@@ -17022,7 +16974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>509</v>
       </c>
@@ -17048,7 +17000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>510</v>
       </c>
@@ -17074,7 +17026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>511</v>
       </c>
@@ -17100,7 +17052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>512</v>
       </c>
@@ -17126,7 +17078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>513</v>
       </c>
@@ -17152,7 +17104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>514</v>
       </c>
@@ -17178,7 +17130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>515</v>
       </c>
@@ -20196,7 +20148,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K404">
         <v>0.0007745579148462214</v>
@@ -20222,7 +20174,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K405">
         <v>0.0007745579148462214</v>
@@ -20248,7 +20200,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K406">
         <v>0.0007649907394285337</v>
@@ -20274,7 +20226,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K407">
         <v>0.0007091543399724627</v>
@@ -20300,7 +20252,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K408">
         <v>0.0006907031872517042</v>
@@ -20326,7 +20278,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K409">
         <v>0.00068514187670756</v>
@@ -20352,7 +20304,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K410">
         <v>0.00068514187670756</v>
@@ -20378,7 +20330,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K411">
         <v>0.0006650429188293179</v>
@@ -20404,7 +20356,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K412">
         <v>0.0006504774213680948</v>
@@ -20430,7 +20382,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K413">
         <v>0.0006141456736201397</v>
@@ -20456,7 +20408,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K414">
         <v>0.0005685095856985424</v>
@@ -20482,7 +20434,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K415">
         <v>0.0005685095856985424</v>
@@ -28646,7 +28598,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K729">
         <v>0.0005375743131684666</v>
@@ -28672,7 +28624,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K730">
         <v>0.0005267502532410936</v>
@@ -28698,7 +28650,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K731">
         <v>0.0005267502532410936</v>
@@ -28724,7 +28676,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K732">
         <v>0.0005014478427023992</v>
@@ -28750,7 +28702,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K733">
         <v>0.0004868310531622604</v>
@@ -28776,7 +28728,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K734">
         <v>0.0004844684670947925</v>
@@ -28802,7 +28754,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K735">
         <v>0.0004422050009662888</v>
@@ -28828,7 +28780,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K736">
         <v>0.0004346205296216268</v>
@@ -28854,7 +28806,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K737">
         <v>0.0004087939892991433</v>
@@ -28880,7 +28832,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K738">
         <v>0.0004074793682393635</v>
@@ -28906,7 +28858,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K739">
         <v>0.00039836097880925</v>
@@ -28932,7 +28884,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K740">
         <v>0.0003759348535299727</v>
@@ -28958,7 +28910,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K741">
         <v>0.0003759348535299727</v>
@@ -29010,7 +28962,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K743">
         <v>0.0003545771699862313</v>
@@ -29036,7 +28988,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K744">
         <v>0.0003545771699862313</v>
@@ -29062,7 +29014,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K745">
         <v>0.0003545771699862313</v>
@@ -29088,7 +29040,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K746">
         <v>0.0003545771699862313</v>
@@ -29114,7 +29066,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K747">
         <v>0.0003443240940011581</v>
@@ -29140,7 +29092,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K748">
         <v>0.000310368674417242</v>
@@ -29166,7 +29118,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K749">
         <v>0.000310368674417242</v>
@@ -29192,7 +29144,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K750">
         <v>0.000310368674417242</v>
@@ -29218,7 +29170,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K751">
         <v>0.0002658260842154152</v>
@@ -29244,7 +29196,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K752">
         <v>0.0002658260842154152</v>
@@ -29270,7 +29222,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K753">
         <v>0.0002658260842154152</v>
@@ -29296,7 +29248,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K754">
         <v>0.0002211025004831444</v>
@@ -29322,7 +29274,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K755">
         <v>0.0002182053159722803</v>
@@ -29374,7 +29326,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K757">
         <v>0.0001764576379215176</v>
@@ -29400,7 +29352,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K758">
         <v>0.0001323428296431957</v>
@@ -29426,7 +29378,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K759">
         <v>0.0001323428296431957</v>
@@ -29452,7 +29404,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K760">
         <v>0.0001323428296431957</v>
@@ -29478,7 +29430,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K761">
         <v>0.0001323428296431957</v>
@@ -29504,7 +29456,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K762">
         <v>0.0001323428296431957</v>
@@ -29530,7 +29482,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K763">
         <v>0.0001323428296431957</v>
@@ -29556,7 +29508,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K764">
         <v>0.000126684527843429</v>
@@ -29582,7 +29534,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K765">
         <v>0.0001248950611417599</v>
@@ -29608,7 +29560,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K766">
         <v>8.957948870950465E-05</v>
@@ -29634,7 +29586,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K767">
         <v>8.957948870950465E-05</v>
@@ -29660,7 +29612,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K768">
         <v>8.957948870950465E-05</v>
@@ -29686,7 +29638,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K769">
         <v>8.957948870950465E-05</v>
@@ -29712,7 +29664,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K770">
         <v>8.957948870950465E-05</v>
@@ -29738,7 +29690,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K771">
         <v>8.957948870950465E-05</v>
@@ -29764,7 +29716,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K772">
         <v>7.040099961242119E-05</v>
@@ -29790,7 +29742,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K773">
         <v>4.978102422825452E-05</v>
@@ -29816,7 +29768,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K774">
         <v>4.978102422825452E-05</v>
@@ -29842,7 +29794,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K775">
         <v>4.978102422825452E-05</v>
@@ -29868,7 +29820,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K776">
         <v>4.978102422825452E-05</v>
@@ -29894,7 +29846,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K777">
         <v>4.978102422825452E-05</v>
@@ -29920,7 +29872,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K778">
         <v>4.978102422825452E-05</v>
@@ -29946,7 +29898,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K779">
         <v>4.978102422825452E-05</v>
@@ -29972,7 +29924,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K780">
         <v>4.978102422825452E-05</v>
@@ -29998,7 +29950,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K781">
         <v>4.520959363021E-05</v>
@@ -30024,7 +29976,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K782">
         <v>4.520959363021E-05</v>
@@ -30050,7 +30002,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K783">
         <v>4.520959363021E-05</v>
@@ -30076,7 +30028,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K784">
         <v>2.339683308549468E-05</v>
@@ -30102,7 +30054,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K785">
         <v>1.654405933304315E-05</v>
@@ -30128,7 +30080,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K786">
         <v>1.654405933304315E-05</v>
@@ -30154,7 +30106,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K787">
         <v>1.654405933304315E-05</v>
@@ -30180,7 +30132,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K788">
         <v>1.654405933304315E-05</v>
@@ -30206,7 +30158,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K789">
         <v>1.654405933304315E-05</v>
@@ -30232,7 +30184,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K790">
         <v>1.654405933304315E-05</v>
@@ -30258,7 +30210,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K791">
         <v>1.654405933304315E-05</v>
@@ -30284,7 +30236,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K792">
         <v>1.654405933304315E-05</v>
@@ -30310,7 +30262,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K793">
         <v>1.654405933304315E-05</v>
@@ -30336,7 +30288,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K794">
         <v>1.654405933304315E-05</v>
@@ -30362,7 +30314,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K795">
         <v>1.654405933304315E-05</v>
@@ -30388,7 +30340,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K796">
         <v>0</v>
@@ -30414,7 +30366,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K797">
         <v>0</v>
@@ -30440,7 +30392,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K798">
         <v>0</v>
@@ -30466,7 +30418,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K799">
         <v>0</v>
@@ -30492,7 +30444,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K800">
         <v>0</v>
@@ -30518,7 +30470,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K801">
         <v>0</v>
@@ -30544,7 +30496,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K802">
         <v>0</v>
@@ -30570,7 +30522,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K803">
         <v>0</v>
@@ -30596,7 +30548,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K804">
         <v>0</v>
@@ -30622,7 +30574,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K805">
         <v>0</v>
@@ -30648,7 +30600,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K806">
         <v>0</v>
@@ -30674,7 +30626,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K807">
         <v>0</v>
@@ -30700,7 +30652,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K808">
         <v>0</v>
@@ -30726,7 +30678,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K809">
         <v>0</v>
@@ -30752,7 +30704,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K810">
         <v>0</v>
